--- a/data/small/l_data06.xlsx
+++ b/data/small/l_data06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786C2541-8F45-4D7B-B78B-26FD86B36485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE2DC5C-0181-447F-8254-4DC52C895D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="3340" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -276,33 +273,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -327,138 +309,54 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1</t>
-  </si>
-  <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -471,57 +369,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -766,303 +634,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1171,6 +742,114 @@
   <si>
     <t>12,15,16</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1642,7 +1321,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1332,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1343,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1387,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1398,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2953,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +2886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G62" sqref="G62:G64"/>
     </sheetView>
   </sheetViews>
@@ -3248,7 +2927,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3286,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3316,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3346,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3376,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3392,7 +3071,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3406,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3436,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3466,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3526,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3556,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3586,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3602,7 +3281,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3616,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3646,7 +3325,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3706,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3736,7 +3415,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3766,7 +3445,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3796,7 +3475,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3826,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3886,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3976,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4006,7 +3685,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4022,7 +3701,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4036,7 +3715,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4066,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4096,7 +3775,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4126,7 +3805,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4186,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4216,7 +3895,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4232,7 +3911,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4246,7 +3925,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4276,7 +3955,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4306,7 +3985,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4336,7 +4015,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4366,7 +4045,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4426,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4456,7 +4135,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4486,7 +4165,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4516,7 +4195,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4546,7 +4225,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4606,7 +4285,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4636,7 +4315,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4652,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4666,7 +4345,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4696,7 +4375,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4726,7 +4405,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4786,7 +4465,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4862,7 +4541,7 @@
         <v>76</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4876,7 +4555,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4906,7 +4585,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4936,7 +4615,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4966,7 +4645,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4996,7 +4675,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5026,7 +4705,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5196,25 +4875,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5222,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5233,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5255,10 +4934,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5266,10 +4945,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5277,10 +4956,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5288,10 +4967,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5299,10 +4978,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5310,10 +4989,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,10 +5000,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5332,10 +5011,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5343,10 +5022,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5354,10 +5033,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,10 +5044,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5376,10 +5055,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,10 +5066,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,10 +5077,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5409,10 +5088,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5420,10 +5099,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5431,10 +5110,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,10 +5121,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5453,10 +5132,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,10 +5143,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,10 +5154,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,10 +5165,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,10 +5176,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,10 +5187,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5519,10 +5198,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5530,10 +5209,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,10 +5220,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5231,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,10 +5242,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,10 +5253,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,10 +5264,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5596,10 +5275,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,10 +5286,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5618,10 +5297,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5629,10 +5308,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,10 +5319,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,10 +5330,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,10 +5341,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,10 +5352,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5684,10 +5363,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5695,10 +5374,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5706,10 +5385,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5717,10 +5396,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,10 +5407,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5739,10 +5418,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5750,10 +5429,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5761,10 +5440,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5772,10 +5451,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,10 +5462,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5794,10 +5473,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,10 +5484,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,10 +5495,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5827,10 +5506,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5838,10 +5517,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5849,10 +5528,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5860,10 +5539,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,10 +5550,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,10 +5561,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,10 +5572,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,10 +5583,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5915,10 +5594,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,10 +5605,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,10 +5616,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5948,10 +5627,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,10 +5638,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5970,10 +5649,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5981,10 +5660,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,10 +5671,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6003,10 +5682,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6014,10 +5693,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,10 +5704,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6036,10 +5715,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,10 +5726,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,10 +5737,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6074,48 +5753,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6123,16 +5788,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,16 +5799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6157,16 +5810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6174,16 +5821,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6191,16 +5832,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6208,16 +5843,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6225,16 +5854,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6242,16 +5865,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6259,16 +5876,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6276,16 +5887,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6293,16 +5898,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6310,16 +5909,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,16 +5920,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6344,1444 +5931,934 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>123</v>
       </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
         <v>122</v>
       </c>
-      <c r="D79" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E89" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-      <c r="E90" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D98" t="s">
-        <v>167</v>
-      </c>
-      <c r="E98" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" t="s">
-        <v>166</v>
-      </c>
-      <c r="E99" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" t="s">
-        <v>167</v>
-      </c>
-      <c r="E100" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data06.xlsx
+++ b/data/small/l_data06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE2DC5C-0181-447F-8254-4DC52C895D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BA72F3-8D35-43B1-87FD-32F45EBFBE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,-1,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,0</t>
   </si>
   <si>
@@ -297,21 +294,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -321,9 +309,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -336,18 +321,9 @@
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -360,18 +336,9 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -379,12 +346,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -744,30 +705,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,-1</t>
   </si>
   <si>
@@ -783,73 +732,181 @@
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
-    <t>0,-1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
-    <t>1,1,0,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
     <t>-1,0,1,1,0</t>
   </si>
   <si>
-    <t>0,0,-1,1,-1</t>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1321,7 +1378,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,7 +1389,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +1411,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1433,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1444,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1466,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2632,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2984,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2995,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3025,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3055,7 +3112,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3071,7 +3128,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3085,7 +3142,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3115,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3145,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3205,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3235,7 +3292,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3265,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3281,7 +3338,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3295,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3325,7 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3385,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3415,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3445,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3475,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3505,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3565,7 +3622,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3655,7 +3712,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3685,7 +3742,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3701,7 +3758,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3715,7 +3772,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3745,7 +3802,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3775,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3805,7 +3862,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3865,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3895,7 +3952,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3911,7 +3968,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3925,7 +3982,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -3955,7 +4012,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -3985,7 +4042,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4015,7 +4072,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4045,7 +4102,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4105,7 +4162,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4135,7 +4192,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4165,7 +4222,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4195,7 +4252,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4225,7 +4282,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4285,7 +4342,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4315,7 +4372,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4331,7 +4388,7 @@
         <v>76</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4345,7 +4402,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4375,7 +4432,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4405,7 +4462,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4465,7 +4522,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4541,7 +4598,7 @@
         <v>76</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4555,7 +4612,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4585,7 +4642,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4615,7 +4672,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4645,7 +4702,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4675,7 +4732,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4705,7 +4762,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4875,25 +4932,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B121"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,10 +4968,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,10 +4979,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,10 +4990,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,10 +5001,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4967,10 +5023,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,10 +5034,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,10 +5045,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,10 +5056,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5022,10 +5078,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,10 +5089,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,10 +5100,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,10 +5111,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,10 +5122,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5077,10 +5133,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,10 +5144,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5099,10 +5155,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5110,10 +5166,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,10 +5177,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5132,10 +5188,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5143,10 +5199,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5154,10 +5210,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,10 +5221,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5176,10 +5232,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5187,10 +5243,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,10 +5254,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5209,10 +5265,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,10 +5276,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,10 +5287,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5242,10 +5298,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5253,10 +5309,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,10 +5320,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5275,10 +5331,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5286,10 +5342,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,10 +5353,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5308,10 +5364,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,10 +5375,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5330,10 +5386,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,10 +5397,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5352,10 +5408,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,10 +5419,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,7 +5433,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,10 +5441,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,10 +5452,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,10 +5463,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5418,10 +5474,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5429,10 +5485,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,10 +5496,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5451,10 +5507,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5462,10 +5518,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,10 +5529,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,10 +5540,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,10 +5551,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,10 +5562,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,10 +5573,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5528,10 +5584,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5539,10 +5595,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5550,10 +5606,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5561,10 +5617,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5572,10 +5628,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,10 +5639,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5594,10 +5650,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5605,10 +5661,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,10 +5672,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5627,10 +5683,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,10 +5694,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,10 +5705,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,10 +5716,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,10 +5727,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5682,10 +5738,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,10 +5749,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,10 +5760,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,10 +5771,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5726,10 +5782,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5737,10 +5793,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5753,21 +5809,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -5777,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5788,10 +5844,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5799,10 +5855,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,10 +5877,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5832,10 +5888,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5843,10 +5899,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,10 +5910,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5865,10 +5921,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5876,10 +5932,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5887,10 +5943,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5898,10 +5954,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5909,10 +5965,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5920,10 +5976,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,10 +5987,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,10 +5998,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,10 +6009,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5964,10 +6020,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,10 +6031,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,10 +6042,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,10 +6053,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6008,10 +6064,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,10 +6075,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,10 +6086,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6097,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,10 +6108,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,10 +6119,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,10 +6130,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,10 +6141,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,10 +6152,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,10 +6163,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,10 +6174,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,10 +6185,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6140,10 +6196,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6207,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,10 +6218,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,10 +6229,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,10 +6240,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6195,10 +6251,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,10 +6262,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6217,10 +6273,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6228,10 +6284,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6239,10 +6295,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6250,10 +6306,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,10 +6317,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6272,10 +6328,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6283,10 +6339,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6294,10 +6350,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6305,10 +6361,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6316,10 +6372,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6327,10 +6383,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6338,10 +6394,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,10 +6405,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6360,10 +6416,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6371,10 +6427,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6382,10 +6438,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6393,10 +6449,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,10 +6460,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6415,10 +6471,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6426,10 +6482,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6437,10 +6493,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6448,10 +6504,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6459,10 +6515,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6470,10 +6526,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6481,10 +6537,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6492,10 +6548,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6503,10 +6559,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6514,10 +6570,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6525,10 +6581,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6536,10 +6592,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6547,10 +6603,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6558,10 +6614,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,10 +6625,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6580,10 +6636,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6591,10 +6647,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6602,10 +6658,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6613,10 +6669,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" t="s">
         <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6624,10 +6680,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6635,10 +6691,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6646,10 +6702,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6657,10 +6713,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6668,10 +6724,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6679,10 +6735,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6690,10 +6746,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6701,10 +6757,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6712,10 +6768,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6723,10 +6779,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6734,10 +6790,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6745,10 +6801,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6756,10 +6812,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6767,10 +6823,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6778,10 +6834,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6789,10 +6845,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6800,10 +6856,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,10 +6867,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6822,10 +6878,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6833,10 +6889,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" t="s">
         <v>110</v>
-      </c>
-      <c r="C98" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6844,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6855,10 +6911,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
